--- a/Data Files/xlsx files/Roles.xlsx
+++ b/Data Files/xlsx files/Roles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>attribute_name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>disabled</t>
   </si>
   <si>
-    <t>Toyoto</t>
-  </si>
-  <si>
     <t>Totient</t>
   </si>
   <si>
@@ -76,6 +73,15 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>Role0</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>checked</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,10 +465,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -471,19 +477,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -493,23 +499,23 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>43880.508112962962</v>
+        <v>43901.628262268518</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">CONCATENATE(A2," ",TEXT(B2,"DD-MM-YYYY HH:MM:SS"))</f>
-        <v>Role1 19-02-2020 12:11:41</v>
+        <v>Role1 11-03-2020 15:04:42</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -517,36 +523,47 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6">
         <f ca="1">NOW()</f>
-        <v>43880.508112962962</v>
+        <v>43901.628262268518</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">CONCATENATE(A3," ",TEXT(B3,"DD-MM-YYYY HH:MM:SS"))</f>
-        <v>Role2 19-02-2020 12:11:41</v>
+        <v>Role2 11-03-2020 15:04:42</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6">
+        <f ca="1">NOW()</f>
+        <v>43901.628262268518</v>
+      </c>
+      <c r="C4" t="str">
+        <f ca="1">CONCATENATE(A4," ",TEXT(B4,"DD-MM-YYYY HH:MM:SS"))</f>
+        <v>Role0 11-03-2020 15:04:42</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -554,7 +571,12 @@
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data Files/xlsx files/Roles.xlsx
+++ b/Data Files/xlsx files/Roles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>attribute_name</t>
   </si>
@@ -36,6 +36,9 @@
     <t>disabled</t>
   </si>
   <si>
+    <t>Toyoto</t>
+  </si>
+  <si>
     <t>Totient</t>
   </si>
   <si>
@@ -73,15 +76,6 @@
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>Role0</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>checked</t>
   </si>
 </sst>
 </file>
@@ -447,7 +441,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,10 +459,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -477,19 +471,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -499,23 +493,23 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>43901.628262268518</v>
+        <v>43880.508112962962</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">CONCATENATE(A2," ",TEXT(B2,"DD-MM-YYYY HH:MM:SS"))</f>
-        <v>Role1 11-03-2020 15:04:42</v>
+        <v>Role1 19-02-2020 12:11:41</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -523,47 +517,36 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6">
         <f ca="1">NOW()</f>
-        <v>43901.628262268518</v>
+        <v>43880.508112962962</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">CONCATENATE(A3," ",TEXT(B3,"DD-MM-YYYY HH:MM:SS"))</f>
-        <v>Role2 11-03-2020 15:04:42</v>
+        <v>Role2 19-02-2020 12:11:41</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
-        <f ca="1">NOW()</f>
-        <v>43901.628262268518</v>
-      </c>
-      <c r="C4" t="str">
-        <f ca="1">CONCATENATE(A4," ",TEXT(B4,"DD-MM-YYYY HH:MM:SS"))</f>
-        <v>Role0 11-03-2020 15:04:42</v>
-      </c>
       <c r="D4" s="2"/>
       <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -571,12 +554,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
